--- a/xlsx/country_comparison/gcs_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_all_mean.xlsx
@@ -426,34 +426,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>68.9191298678415</v>
+        <v>58.3687809451867</v>
       </c>
       <c r="C2" t="n">
-        <v>43.8561973166756</v>
+        <v>48.8849102950605</v>
       </c>
       <c r="D2" t="n">
-        <v>89.5340829412168</v>
+        <v>74.201474861221</v>
       </c>
       <c r="E2" t="n">
-        <v>44.4839857651246</v>
+        <v>57.4895712371069</v>
       </c>
       <c r="F2" t="n">
-        <v>60.9535123039105</v>
+        <v>49.5449102816059</v>
       </c>
       <c r="G2" t="n">
-        <v>84.5114160375521</v>
+        <v>84.4503307037106</v>
       </c>
       <c r="H2" t="n">
-        <v>70.8297587374607</v>
+        <v>65.7641470818065</v>
       </c>
       <c r="I2" t="n">
-        <v>71.8852175635752</v>
+        <v>73.1627422134841</v>
       </c>
       <c r="J2" t="n">
-        <v>51.1382181838328</v>
+        <v>50.2149155370942</v>
       </c>
       <c r="K2" t="n">
-        <v>57.5219412043056</v>
+        <v>49.1759752723299</v>
       </c>
     </row>
     <row r="3">
@@ -461,34 +461,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>26.5440344520105</v>
+        <v>28.0983111257431</v>
       </c>
       <c r="C3" t="n">
-        <v>25.7705517017921</v>
+        <v>24.7343830328542</v>
       </c>
       <c r="D3" t="n">
-        <v>32.919430531924</v>
+        <v>31.8806712446203</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2307692307692</v>
+        <v>30.7338634906238</v>
       </c>
       <c r="F3" t="n">
-        <v>34.7752328545655</v>
+        <v>32.0466849534008</v>
       </c>
       <c r="G3" t="n">
-        <v>44.2406963995702</v>
+        <v>44.7490913750926</v>
       </c>
       <c r="H3" t="n">
-        <v>28.734197049923</v>
+        <v>29.3424910542222</v>
       </c>
       <c r="I3" t="n">
-        <v>23.3140376726054</v>
+        <v>25.3749730927999</v>
       </c>
       <c r="J3" t="n">
-        <v>28.1226794163294</v>
+        <v>28.8705617862581</v>
       </c>
       <c r="K3" t="n">
-        <v>47.6450046907074</v>
+        <v>45.3232561771689</v>
       </c>
     </row>
     <row r="4">
@@ -496,34 +496,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>43.4349344205629</v>
+        <v>43.4497018132177</v>
       </c>
       <c r="C4" t="n">
-        <v>41.643801701884</v>
+        <v>37.3066014028881</v>
       </c>
       <c r="D4" t="n">
-        <v>46.3397371700122</v>
+        <v>42.6118118202031</v>
       </c>
       <c r="E4" t="n">
-        <v>34.6939759036145</v>
+        <v>37.2567879409896</v>
       </c>
       <c r="F4" t="n">
-        <v>37.2036277712602</v>
+        <v>41.4842433226089</v>
       </c>
       <c r="G4" t="n">
-        <v>53.9631306292741</v>
+        <v>54.572257848152</v>
       </c>
       <c r="H4" t="n">
-        <v>43.4656591255881</v>
+        <v>44.2617708760319</v>
       </c>
       <c r="I4" t="n">
-        <v>50.2684593832825</v>
+        <v>40.3187741846308</v>
       </c>
       <c r="J4" t="n">
-        <v>41.1177423525112</v>
+        <v>41.4598451519837</v>
       </c>
       <c r="K4" t="n">
-        <v>57.7087123777162</v>
+        <v>44.0522950263322</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_all_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,35 +32,36 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about GCS support in the U.S.
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about GCS support in own country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Belief about GCS support in the U.S.
 (except for the U.S.: support in the EU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about GCS support in own country</t>
   </si>
 </sst>
 </file>
@@ -420,110 +427,134 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>58.3687809451867</v>
+        <v>56.4056918460414</v>
       </c>
       <c r="C2" t="n">
-        <v>48.8849102950605</v>
+        <v>62.6104574696674</v>
       </c>
       <c r="D2" t="n">
-        <v>74.201474861221</v>
+        <v>62.2273519140294</v>
       </c>
       <c r="E2" t="n">
-        <v>57.4895712371069</v>
+        <v>56.7933697165467</v>
       </c>
       <c r="F2" t="n">
-        <v>49.5449102816059</v>
+        <v>75.7304011850663</v>
       </c>
       <c r="G2" t="n">
-        <v>84.4503307037106</v>
+        <v>53.058303552895</v>
       </c>
       <c r="H2" t="n">
-        <v>65.7641470818065</v>
+        <v>68.9059343539561</v>
       </c>
       <c r="I2" t="n">
-        <v>73.1627422134841</v>
+        <v>59.3195783835747</v>
       </c>
       <c r="J2" t="n">
-        <v>50.2149155370942</v>
+        <v>62.3575700142156</v>
       </c>
       <c r="K2" t="n">
-        <v>49.1759752723299</v>
+        <v>54.8050017237745</v>
+      </c>
+      <c r="L2" t="n">
+        <v>84.6428606188793</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47.4614389262856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>28.0983111257431</v>
+        <v>41.7372453377052</v>
       </c>
       <c r="C3" t="n">
-        <v>24.7343830328542</v>
+        <v>42.2297683433051</v>
       </c>
       <c r="D3" t="n">
-        <v>31.8806712446203</v>
+        <v>44.4877182903437</v>
       </c>
       <c r="E3" t="n">
-        <v>30.7338634906238</v>
+        <v>38.552586222486</v>
       </c>
       <c r="F3" t="n">
-        <v>32.0466849534008</v>
+        <v>43.3335742727043</v>
       </c>
       <c r="G3" t="n">
-        <v>44.7490913750926</v>
+        <v>39.2814968440086</v>
       </c>
       <c r="H3" t="n">
-        <v>29.3424910542222</v>
+        <v>43.8010508208596</v>
       </c>
       <c r="I3" t="n">
-        <v>25.3749730927999</v>
+        <v>43.8290682999177</v>
       </c>
       <c r="J3" t="n">
-        <v>28.8705617862581</v>
+        <v>45.7593973431738</v>
       </c>
       <c r="K3" t="n">
-        <v>45.3232561771689</v>
+        <v>36.9068079681403</v>
+      </c>
+      <c r="L3" t="n">
+        <v>54.6783899296328</v>
+      </c>
+      <c r="M3" t="n">
+        <v>41.687361942331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>43.4497018132177</v>
+        <v>34.7728459875887</v>
       </c>
       <c r="C4" t="n">
-        <v>37.3066014028881</v>
+        <v>28.1800572752332</v>
       </c>
       <c r="D4" t="n">
-        <v>42.6118118202031</v>
+        <v>27.3641066555449</v>
       </c>
       <c r="E4" t="n">
-        <v>37.2567879409896</v>
+        <v>25.6678080584812</v>
       </c>
       <c r="F4" t="n">
-        <v>41.4842433226089</v>
+        <v>29.6625949546182</v>
       </c>
       <c r="G4" t="n">
-        <v>54.572257848152</v>
+        <v>31.851890054073</v>
       </c>
       <c r="H4" t="n">
-        <v>44.2617708760319</v>
+        <v>29.1910171733495</v>
       </c>
       <c r="I4" t="n">
-        <v>40.3187741846308</v>
+        <v>28.6093000748544</v>
       </c>
       <c r="J4" t="n">
-        <v>41.4598451519837</v>
+        <v>25.624783349908</v>
       </c>
       <c r="K4" t="n">
-        <v>44.0522950263322</v>
+        <v>30.4387261840999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45.8572414678735</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42.9925088066507</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_all_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -433,13 +436,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>56.4056918460414</v>
+        <v>55.4258283605262</v>
       </c>
       <c r="C2" t="n">
         <v>62.6104574696674</v>
@@ -469,18 +475,21 @@
         <v>54.8050017237745</v>
       </c>
       <c r="L2" t="n">
+        <v>49.41326408185</v>
+      </c>
+      <c r="M2" t="n">
         <v>84.6428606188793</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>47.4614389262856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>41.7372453377052</v>
+        <v>40.6177237377237</v>
       </c>
       <c r="C3" t="n">
         <v>42.2297683433051</v>
@@ -510,15 +519,18 @@
         <v>36.9068079681403</v>
       </c>
       <c r="L3" t="n">
+        <v>37.200929502023</v>
+      </c>
+      <c r="M3" t="n">
         <v>54.6783899296328</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>41.687361942331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>34.7728459875887</v>
@@ -550,10 +562,11 @@
       <c r="K4" t="n">
         <v>30.4387261840999</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4"/>
+      <c r="M4" t="n">
         <v>45.8572414678735</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>42.9925088066507</v>
       </c>
     </row>

--- a/xlsx/country_comparison/gcs_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_all_mean.xlsx
@@ -445,7 +445,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>55.4258283605262</v>
+        <v>55.3718303775116</v>
       </c>
       <c r="C2" t="n">
         <v>62.6104574696674</v>
@@ -454,7 +454,7 @@
         <v>62.2273519140294</v>
       </c>
       <c r="E2" t="n">
-        <v>56.7933697165467</v>
+        <v>56.7933697165468</v>
       </c>
       <c r="F2" t="n">
         <v>75.7304011850663</v>
@@ -472,16 +472,16 @@
         <v>62.3575700142156</v>
       </c>
       <c r="K2" t="n">
-        <v>54.8050017237745</v>
+        <v>54.8090076208069</v>
       </c>
       <c r="L2" t="n">
-        <v>49.41326408185</v>
+        <v>49.0282605200155</v>
       </c>
       <c r="M2" t="n">
         <v>84.6428606188793</v>
       </c>
       <c r="N2" t="n">
-        <v>47.4614389262856</v>
+        <v>47.4912333237318</v>
       </c>
     </row>
     <row r="3">
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>40.6177237377237</v>
+        <v>40.5493307668479</v>
       </c>
       <c r="C3" t="n">
         <v>42.2297683433051</v>
@@ -516,16 +516,16 @@
         <v>45.7593973431738</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9068079681403</v>
+        <v>36.9055302021312</v>
       </c>
       <c r="L3" t="n">
-        <v>37.200929502023</v>
+        <v>36.9057907051389</v>
       </c>
       <c r="M3" t="n">
         <v>54.6783899296328</v>
       </c>
       <c r="N3" t="n">
-        <v>41.687361942331</v>
+        <v>41.6894250824717</v>
       </c>
     </row>
     <row r="4">
@@ -533,7 +533,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>34.7728459875887</v>
+        <v>34.7872415482579</v>
       </c>
       <c r="C4" t="n">
         <v>28.1800572752332</v>
@@ -560,14 +560,14 @@
         <v>25.624783349908</v>
       </c>
       <c r="K4" t="n">
-        <v>30.4387261840999</v>
+        <v>30.4357942185907</v>
       </c>
       <c r="L4"/>
       <c r="M4" t="n">
         <v>45.8572414678735</v>
       </c>
       <c r="N4" t="n">
-        <v>42.9925088066507</v>
+        <v>43.0029533260978</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/gcs_all_mean.xlsx
+++ b/xlsx/country_comparison/gcs_all_mean.xlsx
@@ -445,7 +445,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>55.3718303775116</v>
+        <v>55.3746767090015</v>
       </c>
       <c r="C2" t="n">
         <v>62.6104574696674</v>
@@ -454,7 +454,7 @@
         <v>62.2273519140294</v>
       </c>
       <c r="E2" t="n">
-        <v>56.7933697165468</v>
+        <v>56.7933697165467</v>
       </c>
       <c r="F2" t="n">
         <v>75.7304011850663</v>
@@ -475,7 +475,7 @@
         <v>54.8090076208069</v>
       </c>
       <c r="L2" t="n">
-        <v>49.0282605200155</v>
+        <v>49.0485989036895</v>
       </c>
       <c r="M2" t="n">
         <v>84.6428606188793</v>
@@ -489,7 +489,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>40.5493307668479</v>
+        <v>40.563158268296</v>
       </c>
       <c r="C3" t="n">
         <v>42.2297683433051</v>
@@ -519,7 +519,7 @@
         <v>36.9055302021312</v>
       </c>
       <c r="L3" t="n">
-        <v>36.9057907051389</v>
+        <v>36.9618773883661</v>
       </c>
       <c r="M3" t="n">
         <v>54.6783899296328</v>
